--- a/[2분반] 아두보트_마이크로프로세서 및 실습_재료구매신청서[최종].xlsx
+++ b/[2분반] 아두보트_마이크로프로세서 및 실습_재료구매신청서[최종].xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\대학원\조교\2016년 2학기\마이크로프로세서\stu\2013136141\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>조교님께 받앋습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 X5C전용 프로펠러
 </t>
@@ -187,7 +183,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다른 제품이여도 상관없습니다.</t>
+    <r>
+      <t xml:space="preserve">다른 제품이여도 상관없습니다.
+&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이대로 진행하셔도 될 것 같습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">다른 제품이여도 상관없습니다.
+&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이대로 진행하셔도 될 것 같습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">조교님께 받앋습니다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; 목록에서 빼주세요</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">조교님께 받앋습니다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; 목록에서 빼주세요</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +268,7 @@
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +324,24 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -414,6 +500,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,12 +514,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -910,23 +996,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -962,23 +1031,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1133,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1150,64 +1202,64 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1252,8 +1304,8 @@
         <v>26</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" t="s">
-        <v>36</v>
+      <c r="H7" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
@@ -1276,7 +1328,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" t="s">
+      <c r="H8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1299,7 +1351,7 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="86.25" x14ac:dyDescent="0.3">
@@ -1321,7 +1373,7 @@
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="86.25" x14ac:dyDescent="0.3">
@@ -1341,7 +1393,7 @@
         <v>2800</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -1350,7 +1402,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="9">
         <v>6220</v>
@@ -1412,8 +1464,8 @@
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>35</v>
+      <c r="B15" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="9">
         <v>1900</v>
@@ -1424,8 +1476,8 @@
       <c r="E15" s="9">
         <v>5700</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>34</v>
+      <c r="F15" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="G15" s="2"/>
     </row>
